--- a/Mock Test.xlsx
+++ b/Mock Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Git\Unity-Certified-Programmer-Exam-Guide-Second-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50570DEF-81C9-4B12-A0C4-5B0B9890EE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7945017-3CA9-4A74-B41D-BF9BD9FE7E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23085" yWindow="0" windowWidth="15420" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="9">
   <si>
-    <t xml:space="preserve">Score </t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A,B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Attempt </t>
+  </si>
+  <si>
+    <t>2nd Attempt</t>
+  </si>
+  <si>
+    <t>3rd Attempt</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,14 +102,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -356,302 +390,966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <f>(50 - SUM(B1:B50)) / 50</f>
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1">
+        <f>(102 - SUM(B1:B102)) / 102</f>
+        <v>0.75980392156862742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(102 - SUM(D2:D102)) / 102</f>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>0.5</v>
+      </c>
+      <c r="C99" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>4</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
